--- a/common/src/main/webapp/imports/export-大光-52.xlsx
+++ b/common/src/main/webapp/imports/export-大光-52.xlsx
@@ -1621,12 +1621,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="0"/>
@@ -1640,28 +1640,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1675,22 +1655,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1704,10 +1676,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1726,7 +1721,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1741,34 +1744,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1781,23 +1785,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1812,7 +1800,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,175 +1980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,33 +1996,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2063,13 +2029,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2088,183 +2091,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2616,7 +2600,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D5" sqref="A1:R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
@@ -2665,7 +2649,7 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2674,13 +2658,13 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2702,33 +2686,33 @@
       <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2748,7 +2732,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2757,13 +2741,13 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2787,31 +2771,31 @@
       <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2831,7 +2815,7 @@
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2840,13 +2824,13 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2870,33 +2854,33 @@
       <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2916,7 +2900,7 @@
       <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2925,13 +2909,13 @@
       <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2955,33 +2939,33 @@
       <c r="R4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3001,7 +2985,7 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -3010,13 +2994,13 @@
       <c r="H5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -3040,33 +3024,33 @@
       <c r="R5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="2" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AB5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3084,7 +3068,7 @@
       <c r="E6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -3093,13 +3077,13 @@
       <c r="H6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -3123,33 +3107,33 @@
       <c r="R6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="2" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3169,7 +3153,7 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -3178,13 +3162,13 @@
       <c r="H7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -3208,31 +3192,31 @@
       <c r="R7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AB7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3252,7 +3236,7 @@
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -3261,13 +3245,13 @@
       <c r="H8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -3291,33 +3275,33 @@
       <c r="R8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="2" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3337,7 +3321,7 @@
       <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -3346,13 +3330,13 @@
       <c r="H9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -3376,33 +3360,33 @@
       <c r="R9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="2" t="s">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AB9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3422,7 +3406,7 @@
       <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -3431,13 +3415,13 @@
       <c r="H10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -3461,33 +3445,33 @@
       <c r="R10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="2" t="s">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AB10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3507,7 +3491,7 @@
       <c r="E11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -3516,13 +3500,13 @@
       <c r="H11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>121</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -3546,33 +3530,33 @@
       <c r="R11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="2" t="s">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AB11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3592,7 +3576,7 @@
       <c r="E12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -3601,13 +3585,13 @@
       <c r="H12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>132</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3631,33 +3615,33 @@
       <c r="R12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="2" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AB12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AB12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE12" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3677,7 +3661,7 @@
       <c r="E13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -3686,13 +3670,13 @@
       <c r="H13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -3716,33 +3700,33 @@
       <c r="R13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="2" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" s="6" t="s">
+      <c r="AB13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3762,7 +3746,7 @@
       <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3771,13 +3755,13 @@
       <c r="H14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>153</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -3801,33 +3785,33 @@
       <c r="R14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="2" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AB14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3847,7 +3831,7 @@
       <c r="E15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>160</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -3856,13 +3840,13 @@
       <c r="H15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>164</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -3886,33 +3870,33 @@
       <c r="R15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X15" s="2" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AA15" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AB15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AB15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE15" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3932,7 +3916,7 @@
       <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -3941,13 +3925,13 @@
       <c r="H16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>174</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -3971,33 +3955,33 @@
       <c r="R16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="2" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AB16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4017,7 +4001,7 @@
       <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>180</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -4026,13 +4010,13 @@
       <c r="H17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -4056,33 +4040,33 @@
       <c r="R17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X17" s="2" t="s">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AA17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AB17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4102,7 +4086,7 @@
       <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -4111,13 +4095,13 @@
       <c r="H18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>193</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -4141,33 +4125,33 @@
       <c r="R18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X18" s="2" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AA18" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AB18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4187,7 +4171,7 @@
       <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -4196,13 +4180,13 @@
       <c r="H19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>202</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -4226,33 +4210,33 @@
       <c r="R19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X19" s="2" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AA19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AB19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4270,7 +4254,7 @@
       <c r="E20" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -4279,13 +4263,13 @@
       <c r="H20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -4305,33 +4289,33 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X20" s="2" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="s">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AA20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AB20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4349,7 +4333,7 @@
       <c r="E21" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>214</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -4358,13 +4342,13 @@
       <c r="H21" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -4386,33 +4370,33 @@
         <v>89612666</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" s="2" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA21" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AB21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4430,7 +4414,7 @@
       <c r="E22" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -4439,13 +4423,13 @@
       <c r="H22" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -4467,33 +4451,33 @@
         <v>226</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X22" s="2" t="s">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AB22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AB22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4513,7 +4497,7 @@
       <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -4522,13 +4506,13 @@
       <c r="H23" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>234</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -4552,33 +4536,33 @@
       <c r="R23" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="2" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AA23" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AB23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4598,7 +4582,7 @@
       <c r="E24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -4607,13 +4591,13 @@
       <c r="H24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -4637,33 +4621,33 @@
       <c r="R24" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X24" s="2" t="s">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2" t="s">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AA24" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4683,7 +4667,7 @@
       <c r="E25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -4692,13 +4676,13 @@
       <c r="H25" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>253</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -4722,33 +4706,33 @@
       <c r="R25" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X25" s="2" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2" t="s">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AA25" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AB25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE25" s="5" t="s">
+      <c r="AB25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4768,7 +4752,7 @@
       <c r="E26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -4777,13 +4761,13 @@
       <c r="H26" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>263</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -4807,33 +4791,33 @@
       <c r="R26" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X26" s="2" t="s">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA26" s="2" t="s">
+      <c r="AA26" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AB26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AB26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4853,7 +4837,7 @@
       <c r="E27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -4862,13 +4846,13 @@
       <c r="H27" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>273</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -4892,33 +4876,33 @@
       <c r="R27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X27" s="2" t="s">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2" t="s">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="2" t="s">
+      <c r="AA27" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AB27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE27" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4938,7 +4922,7 @@
       <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>279</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -4947,13 +4931,13 @@
       <c r="H28" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>284</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -4977,33 +4961,33 @@
       <c r="R28" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X28" s="2" t="s">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2" t="s">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AA28" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AB28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE28" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5023,7 +5007,7 @@
       <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>291</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -5032,13 +5016,13 @@
       <c r="H29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>295</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -5062,33 +5046,33 @@
       <c r="R29" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X29" s="2" t="s">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2" t="s">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AA29" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AB29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AB29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5108,7 +5092,7 @@
       <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -5117,13 +5101,13 @@
       <c r="H30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>306</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -5147,33 +5131,33 @@
       <c r="R30" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X30" s="2" t="s">
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA30" s="2" t="s">
+      <c r="AA30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AB30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AB30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5193,7 +5177,7 @@
       <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>312</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -5202,13 +5186,13 @@
       <c r="H31" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>316</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -5232,33 +5216,33 @@
       <c r="R31" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X31" s="2" t="s">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2" t="s">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AA31" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AB31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE31" s="5" t="s">
+      <c r="AB31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5278,7 +5262,7 @@
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>321</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -5287,13 +5271,13 @@
       <c r="H32" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>325</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -5317,33 +5301,33 @@
       <c r="R32" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X32" s="2" t="s">
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2" t="s">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA32" s="2" t="s">
+      <c r="AA32" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AB32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AB32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5363,7 +5347,7 @@
       <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>332</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -5372,13 +5356,13 @@
       <c r="H33" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>335</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -5402,33 +5386,33 @@
       <c r="R33" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X33" s="2" t="s">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2" t="s">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA33" s="2" t="s">
+      <c r="AA33" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="AB33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AB33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5448,7 +5432,7 @@
       <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -5457,13 +5441,13 @@
       <c r="H34" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>344</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -5487,33 +5471,33 @@
       <c r="R34" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X34" s="2" t="s">
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2" t="s">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA34" s="2" t="s">
+      <c r="AA34" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AB34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AB34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5533,7 +5517,7 @@
       <c r="E35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>349</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -5542,13 +5526,13 @@
       <c r="H35" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>153</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -5572,33 +5556,33 @@
       <c r="R35" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X35" s="2" t="s">
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2" t="s">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA35" s="2" t="s">
+      <c r="AA35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="AB35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE35" s="5" t="s">
+      <c r="AB35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5618,7 +5602,7 @@
       <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -5627,13 +5611,13 @@
       <c r="H36" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>361</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -5657,33 +5641,33 @@
       <c r="R36" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X36" s="2" t="s">
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2" t="s">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA36" s="2" t="s">
+      <c r="AA36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AB36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AB36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5703,7 +5687,7 @@
       <c r="E37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>368</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -5712,13 +5696,13 @@
       <c r="H37" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>372</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -5742,33 +5726,33 @@
       <c r="R37" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X37" s="2" t="s">
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2" t="s">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA37" s="2" t="s">
+      <c r="AA37" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AB37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AB37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE37" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5788,7 +5772,7 @@
       <c r="E38" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>380</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -5797,13 +5781,13 @@
       <c r="H38" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
         <v>384</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -5827,33 +5811,33 @@
       <c r="R38" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X38" s="2" t="s">
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2" t="s">
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA38" s="2" t="s">
+      <c r="AA38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AB38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5873,7 +5857,7 @@
       <c r="E39" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>390</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -5882,13 +5866,13 @@
       <c r="H39" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>394</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -5912,33 +5896,33 @@
       <c r="R39" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X39" s="2" t="s">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2" t="s">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA39" s="2" t="s">
+      <c r="AA39" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="AB39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE39" s="5" t="s">
+      <c r="AB39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE39" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5958,7 +5942,7 @@
       <c r="E40" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>400</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -5967,13 +5951,13 @@
       <c r="H40" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>403</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -5997,33 +5981,33 @@
       <c r="R40" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X40" s="2" t="s">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2" t="s">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA40" s="2" t="s">
+      <c r="AA40" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="AB40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE40" s="5" t="s">
+      <c r="AB40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6043,7 +6027,7 @@
       <c r="E41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>409</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -6052,13 +6036,13 @@
       <c r="H41" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>413</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -6082,33 +6066,33 @@
       <c r="R41" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X41" s="2" t="s">
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2" t="s">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA41" s="2" t="s">
+      <c r="AA41" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AB41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE41" s="5" t="s">
+      <c r="AB41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6128,7 +6112,7 @@
       <c r="E42" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>419</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -6137,13 +6121,13 @@
       <c r="H42" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>423</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -6167,33 +6151,33 @@
       <c r="R42" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X42" s="2" t="s">
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2" t="s">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA42" s="2" t="s">
+      <c r="AA42" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AB42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE42" s="5" t="s">
+      <c r="AB42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE42" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6213,7 +6197,7 @@
       <c r="E43" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>430</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -6222,13 +6206,13 @@
       <c r="H43" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>434</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -6252,33 +6236,33 @@
       <c r="R43" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X43" s="2" t="s">
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2" t="s">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA43" s="2" t="s">
+      <c r="AA43" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AB43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE43" s="5" t="s">
+      <c r="AB43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE43" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6298,7 +6282,7 @@
       <c r="E44" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -6307,13 +6291,13 @@
       <c r="H44" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>445</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -6337,31 +6321,31 @@
       <c r="R44" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2" t="s">
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2" t="s">
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA44" s="2" t="s">
+      <c r="AA44" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="AB44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE44" s="5" t="s">
+      <c r="AB44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE44" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6381,7 +6365,7 @@
       <c r="E45" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>454</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -6390,13 +6374,13 @@
       <c r="H45" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>458</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -6420,33 +6404,33 @@
       <c r="R45" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X45" s="2" t="s">
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2" t="s">
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA45" s="2" t="s">
+      <c r="AA45" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="AB45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE45" s="5" t="s">
+      <c r="AB45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE45" s="4" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6464,7 +6448,7 @@
       <c r="E46" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>465</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -6473,13 +6457,13 @@
       <c r="H46" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -6503,35 +6487,35 @@
       <c r="R46" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X46" s="2" t="s">
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y46" s="2" t="s">
+      <c r="Y46" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="Z46" s="2" t="s">
+      <c r="Z46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA46" s="2" t="s">
+      <c r="AA46" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="AB46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE46" s="5" t="s">
+      <c r="AB46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE46" s="4" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6551,7 +6535,7 @@
       <c r="E47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>474</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -6560,13 +6544,13 @@
       <c r="H47" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="2" t="s">
         <v>478</v>
       </c>
       <c r="L47" s="2" t="s">
@@ -6590,33 +6574,33 @@
       <c r="R47" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X47" s="2" t="s">
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2" t="s">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA47" s="2" t="s">
+      <c r="AA47" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="AB47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE47" s="5" t="s">
+      <c r="AB47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6636,7 +6620,7 @@
       <c r="E48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>483</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -6645,13 +6629,13 @@
       <c r="H48" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="2" t="s">
         <v>487</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -6675,33 +6659,33 @@
       <c r="R48" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X48" s="2" t="s">
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2" t="s">
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA48" s="2" t="s">
+      <c r="AA48" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="AB48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE48" s="5" t="s">
+      <c r="AB48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE48" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6721,7 +6705,7 @@
       <c r="E49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>493</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -6730,13 +6714,13 @@
       <c r="H49" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>496</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -6760,33 +6744,33 @@
       <c r="R49" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X49" s="2" t="s">
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2" t="s">
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA49" s="2" t="s">
+      <c r="AA49" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AB49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE49" s="5" t="s">
+      <c r="AB49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE49" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6806,7 +6790,7 @@
       <c r="E50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>502</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -6815,13 +6799,13 @@
       <c r="H50" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>506</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -6830,7 +6814,7 @@
       <c r="M50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="2" t="s">
         <v>508</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -6845,33 +6829,33 @@
       <c r="R50" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X50" s="2" t="s">
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2" t="s">
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA50" s="2" t="s">
+      <c r="AA50" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="AB50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE50" s="5" t="s">
+      <c r="AB50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE50" s="4" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6891,7 +6875,7 @@
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>515</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -6900,13 +6884,13 @@
       <c r="H51" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -6930,33 +6914,33 @@
       <c r="R51" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X51" s="2" t="s">
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2" t="s">
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AA51" s="2" t="s">
+      <c r="AA51" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="AB51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE51" s="5" t="s">
+      <c r="AB51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE51" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6976,7 +6960,7 @@
       <c r="E52" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>525</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -6985,13 +6969,13 @@
       <c r="H52" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -7015,31 +6999,31 @@
       <c r="R52" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2" t="s">
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2" t="s">
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA52" s="2" t="s">
+      <c r="AA52" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AB52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE52" s="5" t="s">
+      <c r="AB52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE52" s="4" t="s">
         <v>531</v>
       </c>
     </row>
